--- a/results/results_summary.xlsx
+++ b/results/results_summary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kstricks/Documents/McGill/4thyear/first_term/551/assignments/2/repo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kstricks/Documents/McGill/4thyear/first_term/551/assignments/2/repo/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,46 +27,113 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
-  <si>
-    <t xml:space="preserve">model   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">specifics  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> accuracy</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>unigrams only</t>
   </si>
   <si>
-    <t>logistic regression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bigrams, lowercase, remove stop words  </t>
-  </si>
-  <si>
-    <t>bigrams, lowercase, remove stop words</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bigrams, lowercase, remove stop words, tune </t>
-  </si>
-  <si>
-    <t xml:space="preserve">linear SVC </t>
-  </si>
-  <si>
-    <t>unigrams, lowercase, remove stop words, tf-idf</t>
+    <t>Linear SVM</t>
+  </si>
+  <si>
+    <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>Significance</t>
+  </si>
+  <si>
+    <t>UB</t>
+  </si>
+  <si>
+    <t>unigrams and bigrams</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>lowercase</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>remove stop words</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>hyperparameter tuning using cross validation</t>
+  </si>
+  <si>
+    <t>TF</t>
+  </si>
+  <si>
+    <t>tf-idf term weighting</t>
+  </si>
+  <si>
+    <t>UB, LC, SW</t>
+  </si>
+  <si>
+    <t>UB, LC, SW, T</t>
+  </si>
+  <si>
+    <t>UB, LC, SW, TF</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifics  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy</t>
+  </si>
+  <si>
+    <t>Naïve Bayes</t>
+  </si>
+  <si>
+    <t>Decision Trees</t>
+  </si>
+  <si>
+    <t>M=x</t>
+  </si>
+  <si>
+    <t>number of features = x</t>
+  </si>
+  <si>
+    <t>U, LC, SW, M=440</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -89,13 +156,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -371,57 +442,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D7"/>
+  <dimension ref="B2:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>0.80388999999999999</v>
+        <v>0.81206999999999996</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>0.81206999999999996</v>
+        <v>0.81155999999999995</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>0.80937999999999999</v>
@@ -429,27 +500,107 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>0.81155999999999995</v>
+        <v>0.80388999999999999</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>0.75658000000000003</v>
       </c>
     </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="B3:D7">
+    <sortCondition descending="1" ref="D3:D7"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>